--- a/25/After_Soc_EEH2.xlsx
+++ b/25/After_Soc_EEH2.xlsx
@@ -17,30 +17,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>ГО</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
-    <t>ГЗ_end</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract start 1 per</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract end</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Show res of Extract</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Contrib start 1 per</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Contrib end</t>
+    <t>6</t>
   </si>
   <si>
-    <t>ГО</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Преображенский Артём</t>
@@ -437,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,15 +457,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:44">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -462,1271 +477,1424 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.972327842166763</v>
+        <v>0.2902750186550282</v>
       </c>
       <c r="D2" t="n">
+        <v>2.151486569120379</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.994682206887823</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.729462717320646</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>2.759290799907694</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.075760512416624</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>5.800965883454979</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>2.509751767053534</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.75515159078329</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.8286712590091029</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>2.395710512430234</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.888505142925573</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>1.034008133179378</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.274898566385927</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>1.294406809751198</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.3171449157890397</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>0.3976984465185804</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>1.625624540167098</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2.681975441520882</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>2.525330608363196</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1.929086868709303</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>2.478710369484677</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>0.687341198486857</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>1.592084971027178</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>1.22728974697894</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>0.7073301023842653</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>1.044887434785376</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>1.164348547034962</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>0.9601556265819203</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>1.168668438917688</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>0.976065954464484</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>0.7414182714490621</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>0.6077646098855536</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>1.18949990066902</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>0.8752360539113309</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>2.134495058429545</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>2.185969475285342</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>2.353733691579615</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
         <v>2.071371086109353</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
         <v>3.678427974690266</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
         <v>1.391478084896384</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>0.9779113301478174</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>8.463152176199314</v>
+        <v>0.7559123367476021</v>
       </c>
       <c r="D3" t="n">
+        <v>9.331525407519873</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.1652168866722</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.830903312029674</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>3.64052667507433</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>7.561707780016279</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>7.740829531142049</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>2.854018443106428</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2.183741795445938</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.911973990872536</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.825652528417183</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>1.938148172152368</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>1.627139381923336</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1.892674832715061</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>3.877590349078016</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>3.572844389857218</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.5168308129327356</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>1.44917004396407</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>4.803909444852484</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>3.313091099717379</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>6.114271900684153</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>13.85025947637094</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>0.4191694409160217</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.666637403794843</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>0.4426903679592915</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>3.599500043119676</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>7.343784193026014</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>7.607693983001147</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>6.432713961709513</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>1.666256530922996</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>1.413769757267227</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>0.7208955950793323</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>0.6151068474894154</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>0.3368346276303321</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>0.5569100763287612</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>10.57909215264351</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>6.914921226522409</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
         <v>2.236750603184164</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
         <v>4.922390418529063</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
         <v>11.73215624595616</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>1.621249014542992</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>0.4901748855017538</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>8.57141698007257</v>
+        <v>0.7214912072727386</v>
       </c>
       <c r="D4" t="n">
+        <v>9.618585947155552</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.97476342391077</v>
+      </c>
+      <c r="F4" t="n">
         <v>2.866338464623421</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1.38542144063392</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>3.187541211005106</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>3.557470050464074</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>1.470499412571846</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1.563756803855978</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.3293750593173816</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.886627749797385</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1.06719397642007</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1.220354530693344</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.7461804420552763</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>1.019524500460206</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>0.4900839862615396</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.9446825619108055</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>1.096395216172125</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.1248568235209441</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0.2201776494861631</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>0.5740367542853928</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>0.719907820100543</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>1.099758586609338</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>1.619130952969342</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>0.1948959746055143</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>0.8378976694953408</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>2.382181669113318</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>4.817077860736219</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>1.589382586480012</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>0.5554949527036984</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>0.4034694468615665</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>0.9294967428105292</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>0.7854474736650318</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>1.165067784156331</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>0.7656531779004142</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>0.8542918531444051</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>1.115083176335937</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>1.910800292137286</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>1.109829243252634</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>38.2541183774896</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>12.35443911699928</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>0.4645516687363653</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00390692063618</v>
+        <v>0.9495358308628342</v>
       </c>
       <c r="D5" t="n">
+        <v>0.9677903833254928</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.449810790767129</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.868084001484707</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>3.771520942791504</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2.918273667555866</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.57301845280493</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.6001611126955436</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.1322720496267383</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.1832872987195387</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2496250334638055</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1232693495197565</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.100388590072968</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.07384735406204034</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.09446033888466127</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.06957208406000247</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.1237439241138337</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.1504383034042132</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>1.285479434653962</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>1.500112972952093</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>4.119979137123311</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>6.04876837772585</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>0.5899519352485433</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.2476702774070424</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>0.7818081946286468</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>1.001049953050405</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>1.219174323676452</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>2.295367498319575</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>0.7006158674703239</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>0.111134179403672</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>0.06972564703783918</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>0.3504625992934955</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>0.3307887709185334</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>0.4680403530246384</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>0.4087452767974317</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>0.5109424146141099</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>0.3704692057258701</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
         <v>0.598476945844744</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
         <v>0.09318964025042141</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
         <v>1.243427590979259</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5" t="n">
         <v>0.7663010814185568</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>0.1010053250310237</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>5.749576152266727</v>
+        <v>0.07084055112572915</v>
       </c>
       <c r="D6" t="n">
+        <v>6.296142115076747</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.91726549984665</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.52730110321437</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>2.094675024931619</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>1.334422146955804</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.3878978061008719</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.3851746869887557</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.3576941293049644</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.3609546294562044</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.06876842660117868</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08107004350489184</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.1230903342351559</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.1026122507567854</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>8.278346540326286</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>11.30908264489051</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.1967384762141145</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.1600191371170519</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>2.7389114811351</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>3.423418639893312</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>2.14942620721703</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>1.915647830618941</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>0.4615831358409364</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5193963618567214</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>0.4244267458709378</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>12.60495257098017</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>7.612807430311472</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>1.328717398896546</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>1.647457099301679</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>2.397971190704204</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>0.179541967193786</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>0.2075674449699701</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>0.8539525707730422</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>1.644653718167524</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>0.7763893763288745</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>0.5791204733487765</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>0.7766278678321133</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
         <v>1.240401854772716</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
         <v>0.08481341889721471</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
         <v>6.402333837844627</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>3.383674532037183</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>0.06862891315831174</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>6.511693832236146</v>
+        <v>0.695863821506149</v>
       </c>
       <c r="D7" t="n">
+        <v>7.106159235147787</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.99628947683936</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.539955174872173</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>8.005914766085127</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>7.447187620986057</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.3390063793216906</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>3.069855656669529</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>4.868504122642579</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>3.763260867345474</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>8.390044977938039</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>2.29489580066692</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.215148026795753</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.443123158326693</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>1.338833299656579</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>2.466129581117002</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>1.756120759406828</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>4.210940850450497</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>5.946855078022454</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>1.529607298248022</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>8.590960638686582</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>17.14653789533926</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>4.928827604933241</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.001086818122102</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>6.846844142050337</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>11.85888008842274</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
         <v>4.14097561296991</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>13.70686886922417</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>10.45310808970057</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>1.114757400693273</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>6.281568406392606</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>15.399385958426</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>1.579922008702603</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>8.152451028268494</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>8.366587157543012</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>25.19391645189878</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>0.3975675886983785</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AN7" t="n">
         <v>0.5300658599752324</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
         <v>0.3683699210816441</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
         <v>1.47877029425317</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
         <v>0.5979880105212428</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>1.955229460970976</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>1.377529480347731</v>
+        <v>0.05713298879552546</v>
       </c>
       <c r="D8" t="n">
+        <v>1.509122307904947</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.125778282793468</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.6980288254677864</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.95008866994206</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.9547447439050072</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.124895197594336</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>1.073263804518398</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.3112051122789055</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.3284245066523483</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06232514417387469</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.4514750705397282</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1.031947692287773</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>1.137798823352745</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.1745972096295175</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>0.07008498809232956</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.06556912100485884</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>1.644378825752305</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>3.083416426150864</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>5.117414720017266</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>10.43829726798988</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>5.501529841709258</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>6.054310081605392</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>1.706137688021362</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>1.772071821211327</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>4.230816518123834</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>6.103846280778792</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>1.774731556773925</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>1.921409131392078</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>0.5519987088037566</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>0.4948812285828472</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>0.337653565360032</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>0.2952738988092516</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>0.8538891474535881</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>0.8133292122615389</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>0.6821868014672091</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>2.475245932153586</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>5.96431890372507</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>0.174615439753912</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
         <v>6.37835199584111</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>5.331122148610087</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>0.08696430707714534</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1.103153060115556</v>
+        <v>0.05692534244488764</v>
       </c>
       <c r="D9" t="n">
+        <v>1.205077328048639</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.724896494623813</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.9627198670266615</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>1.128076260906486</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.2061733877327177</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.3178244791371863</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.2190908798951871</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>0.1107722091027675</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.6299495077425621</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6917154561279427</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.05980830273201357</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.07655978967103802</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.0872029936697601</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.05354202140601105</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>0.05787677129162083</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.06495150445679605</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>0.08115822566441561</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>0.4997544119244712</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>0.5331137100376169</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>0.4211377183999389</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>0.7269767473892792</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>1.61013294262996</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>1.05374899636572</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>0.1760670254965753</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>0.08454483569145194</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>0.08366601997359786</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>0.1583711916596824</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>0.7061087393675738</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>0.9738349748643151</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>0.6872223877692304</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>0.8316585215740141</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>0.5624957605769156</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>1.281055028650784</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>1.247091980166288</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>1.687025043527519</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>0.8639803323185846</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>1.08799678491707</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>0.5074157002021303</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
         <v>1.18310198432392</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>0.9528499096537246</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>0.3784957358634615</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>1.104912941751687</v>
+        <v>0.1152374743738621</v>
       </c>
       <c r="D10" t="n">
+        <v>1.202863483747348</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.759242467066689</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.3062995128498585</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.2301993164148778</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0.2969806677229802</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.3001901879891097</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.5483256218231088</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>0.8966713689897078</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.3279194022839018</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1349202095218711</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.1918508592885969</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.725993375177942</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>9.791712410570531</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>11.02219277683228</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>0.3179820295454635</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.09370585792852647</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>0.5065124610515693</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>0.8634670213737207</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>0.5593933184680603</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1.043877114235207</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>1.135781379231502</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>8.291907218033494</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>25.53583598566923</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>0.3645047753979252</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>0.4893956771754027</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>0.3967978583424565</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>4.340785066597443</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>3.189428204045544</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>0.8618328538880958</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>0.750291998762237</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>1.012451554676499</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>1.319078422486362</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>2.156821435314096</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>0.4326278677769489</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>1.098568044351767</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>3.180280911277178</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
         <v>7.248614633779735</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
         <v>0.7973288185355694</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AP10" t="n">
         <v>0.8642106027977248</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AQ10" t="n">
         <v>0.7543405916808219</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>0.1792921948811684</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>6.982055538521917</v>
+        <v>0.06046037550200301</v>
       </c>
       <c r="D11" t="n">
+        <v>7.686252361639052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.09645142996417</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.7101605223329163</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.1891008816934182</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>0.2733018015115355</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.323653806823488</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>0.07369790214333614</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.1134548046923171</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.1035557262688614</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1092126716123234</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06916284391108878</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>0.140992893729873</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0.1128252857717411</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>0.165324263733817</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>0.1645129075265827</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.1038116913375548</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>0.06224813726639909</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>0.4596123810826632</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>0.4727793484619914</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>0.5340983685536671</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>0.4526421469832517</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>0.3391422959897682</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.3580924710483881</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>0.1872300748064514</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>0.4323392728059626</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>0.4101161439039366</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>0.4032910450406586</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>0.3376620478804812</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>0.406946855156658</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>0.5055104706985</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>1.236631676450491</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>1.05071148845332</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>0.5547956009452158</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>0.3802056168471863</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>0.6807296828561322</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>0.5174209736068462</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>0.9752224119231613</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>0.3017369751835151</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AP11" t="n">
         <v>11.0868550005885</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AQ11" t="n">
         <v>8.493137273383928</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>0.06846734567061473</v>
       </c>
     </row>
@@ -1741,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,15 +1917,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:44">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1766,1271 +1937,1424 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2.986473183219623</v>
+        <v>8.007333004507492</v>
       </c>
       <c r="D2" t="n">
+        <v>3.94260744818227</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.222605622279531</v>
+      </c>
+      <c r="F2" t="n">
         <v>6.059003218229221</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>5.385131965573218</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.507237582342537</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>7.313734636156894</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>6.448342623758436</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>6.015158289027977</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>6.036739710444467</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>5.353527173181364</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>4.603022705990303</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>5.564063213848725</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>5.344354925093031</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>6.326028833375865</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>7.151385249023305</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>6.121026218675889</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>5.409769010589266</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>5.67385430161241</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>5.182424594239349</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>6.301128591555852</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>5.894038619525567</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>6.369757420970005</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>5.720391136368469</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>5.992741112336275</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>7.176300422252138</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>5.214244638503212</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>4.368217539484144</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>6.590250253483351</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>5.486436661522339</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>6.056125136853423</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>6.283511150277986</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>6.819929352956768</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>5.888177260141938</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>6.657467704622281</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>5.267675619538392</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>6.457524828313703</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>3.849161208792212</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
         <v>4.529905717274591</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
         <v>5.238846433284497</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
         <v>4.836863261911511</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>6.155412700239121</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>3.678773964763864</v>
+        <v>9.300449474239667</v>
       </c>
       <c r="D3" t="n">
+        <v>3.413694087550249</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.872616791555604</v>
+      </c>
+      <c r="F3" t="n">
         <v>7.503662212781562</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>7.298712223076899</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>4.046221713451136</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>7.486862222104614</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>6.767800617019285</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>6.863037720727798</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>6.87200860797842</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>6.604285871987256</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>6.941026425994623</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>6.987621474819893</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>7.715228748496026</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>6.309985684934657</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>5.905311339179148</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>6.285402218862257</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>4.59387114743484</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>7.735680942394273</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>6.313450329036806</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>5.559999673720488</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>3.968858065902078</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>7.715468283135736</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>6.192959387390226</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>7.291623283202454</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>4.657782602984858</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>5.875080326174787</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>4.510061028934706</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>8.162931205533395</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>7.247795907057128</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>7.637660825264192</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>6.278653889178257</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>8.719119835501028</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>6.100711588373543</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>9.617277341847606</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>5.762102112506482</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>7.383497916186149</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
         <v>7.194082558707585</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
         <v>5.044385118398909</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
         <v>4.210335499948723</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>8.229438667548628</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>9.442271155165717</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>3.843595343786147</v>
+        <v>8.090007704485485</v>
       </c>
       <c r="D4" t="n">
+        <v>3.851729209866907</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.238422822902756</v>
+      </c>
+      <c r="F4" t="n">
         <v>7.792399159041877</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>7.308980195155615</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2.889655489847933</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>5.898300857852654</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>6.106080063949073</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>6.954994144017665</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.296939128618963</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5.219513187858303</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>7.30437927275398</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>6.093805609891194</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>7.402069843330983</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>7.401434555699377</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>7.446073213108416</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>5.264714637098077</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>5.344360620469204</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>6.832890014164754</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>6.887677236072094</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>6.829267241741574</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>6.314709012294339</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>4.63446467700128</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>5.363233578619393</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>8.796092477444212</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>6.381720024450424</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>2.028563297521945</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>4.034162209850486</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>6.81329247311722</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>5.355459942991092</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>7.345368773578283</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>5.235093742685605</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>7.08878488139514</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>6.297223360559459</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>7.346685619809103</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>5.092597385494576</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>4.615655901591961</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>3.374960149063704</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>4.673070419675463</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>4.356158258849042</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>6.262649163441826</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>8.744590673315164</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>4.957258542549989</v>
+        <v>5.820650858577134</v>
       </c>
       <c r="D5" t="n">
+        <v>6.378673293125356</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.307252282148928</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.545595682063497</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>5.525868797178287</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>4.547418834415343</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>6.834422780642782</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>6.986749110185989</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>7.195939852115433</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7.07214015980212</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>7.271928094887367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>7.678650998109609</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>7.353542158175667</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>7.533312255932977</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>7.215485357162529</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>7.321928094887368</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>6.870364719583383</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>7.431449242975145</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>6.249168401208244</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>5.813179423589311</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>4.855919379388419</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>4.849453847038485</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>7.436873777056123</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>7.162890436798816</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>5.136353219780611</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>5.768387016273816</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>5.109110363385378</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>4.834096851723147</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>7.350248215174335</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>7.21916852046217</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>9.311395827235311</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>7.228015669719544</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>8.255001970792568</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>7.162890436798817</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>7.805115711387216</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>7.102129653370324</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>7.838301810167292</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
         <v>6.866425850889394</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
         <v>8.995908650472776</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
         <v>6.762332880612823</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5" t="n">
         <v>6.391991525180885</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>10.21125497244923</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>2.273172602577797</v>
+        <v>10.29430158457508</v>
       </c>
       <c r="D6" t="n">
+        <v>2.291785814565892</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.795058921608641</v>
+      </c>
+      <c r="F6" t="n">
         <v>6.976289260667186</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>8.152382646825007</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>5.26991125434859</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>6.563856189774739</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>7.447474999535287</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6.387915398556683</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7.191701854736458</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>7.076815597050856</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>7.186066902659483</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>7.179909090014958</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>6.491853096329662</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>1.157662270667049</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.9051504751795078</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>7.051163817323451</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>7.257387842692632</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>4.392655388998278</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>5.030202546093348</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>5.654918620355073</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>5.244719037241298</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>7.711250854419455</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>5.843400348604439</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>7.863664101733034</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>4.151706818703719</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>2.151888800333384</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>6.431036374727462</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>4.952097575424967</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>4.378290189872645</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>8.919036910102632</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>7.716725634636139</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>6.791575886385592</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>6.054632988093024</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>6.992444404352341</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>6.841942118283376</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>7.537719980387203</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
         <v>6.670821108510291</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
         <v>9.100092642518716</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
         <v>2.366307854123561</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>1.952347243706382</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>10.28122389945216</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>3.991772374816186</v>
+        <v>6.291625442143417</v>
       </c>
       <c r="D7" t="n">
+        <v>5.929187734683686</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.826724863203441</v>
+      </c>
+      <c r="F7" t="n">
         <v>3.048747291485875</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>6.669673626898029</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>4.28554666762219</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>7.740661388997098</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>5.790585948248793</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>6.364340245562749</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2.790685850370302</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>7.292585949551625</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>5.509010729222493</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>6.454649527508926</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>6.667827157126163</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>6.32707980345888</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>6.548030762188472</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>6.432915566888778</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>5.516532367807448</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>6.902021690438174</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>6.699650863417053</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>6.905289857075997</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>5.427018315303474</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>7.396365788926157</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>6.299269702741456</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>5.046448719575428</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>4.852747333348727</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
         <v>5.10169851187342</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>6.081718950874395</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>6.975732256539648</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>6.170842642167603</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>3.64615966782968</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>4.493471488027081</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>7.002103618293667</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>5.561306464565886</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>5.396886123237242</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>4.765215824844764</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>8.164733388602841</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AN7" t="n">
         <v>6.96371553973719</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
         <v>8.066814658981349</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
         <v>6.558199318415747</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
         <v>6.55676744552999</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>4.642707171604732</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>3.94810084414588</v>
+        <v>10.15741966596659</v>
       </c>
       <c r="D8" t="n">
+        <v>3.490335975221033</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.201972009852913</v>
+      </c>
+      <c r="F8" t="n">
         <v>6.286582814903857</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>6.594816454284421</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>5.326858169251397</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>7.601897809104282</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>6.233660689688197</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>6.890255921368265</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7.584354256233127</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>6.861204317929792</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>7.434955558229678</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>6.291762442476356</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>6.269705599611885</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>7.461055029540868</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>6.84549005094439</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>7.725319948864376</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>5.172906239868454</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>6.822556070362291</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2.486826957243013</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>6.299810125547815</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>3.032073189142393</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>2.213756312360157</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>6.890707484517354</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>6.907759127231099</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>5.711995434670784</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>5.419696948320371</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>4.743214241161505</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>5.266460971842145</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>6.603954257100804</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>7.333741135566497</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>6.735745184644787</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>7.817204413397479</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>7.247568730229868</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>4.150363364117615</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>6.736286231168875</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>3.157093030174777</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>5.796914616761867</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>8.770230516732532</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
         <v>2.053563302859064</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>2.240497459578924</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>10.01192211903047</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>6.201920997919645</v>
+        <v>10.28481443121381</v>
       </c>
       <c r="D9" t="n">
+        <v>6.114382429428971</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.652772847103734</v>
+      </c>
+      <c r="F9" t="n">
         <v>6.550022019977586</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>6.979992842704403</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>8.475319248114841</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>7.751278893825122</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>8.018221648263037</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>7.094031703154979</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7.608706532256716</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>7.445520297564372</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>7.9257842846621</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>7.67679178931914</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>8.519914381893056</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>8.073379208864997</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>8.429530038993525</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>7.515699838284037</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>8.035992253015056</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>7.011362602579887</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>7.54009030712551</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>6.777623192344117</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>7.784974312241045</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>5.631326640067075</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>6.649634000106017</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>8.940323720330579</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>8.494454981184342</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>9.284811569323359</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>7.687761263418365</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>7.377628555528456</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>6.832404006328607</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>7.991132216488499</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>6.761446182080928</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>7.763753683545889</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>5.501836317455263</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>8.231706375600321</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>7.838252249389823</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>7.737482563226194</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>6.83647206944211</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>7.393093129324507</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
         <v>7.845830945570856</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>4.953608039050127</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>6.63057278134283</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>5.068288162000791</v>
+        <v>10.14982417316036</v>
       </c>
       <c r="D10" t="n">
+        <v>6.102888021183697</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.53624442439715</v>
+      </c>
+      <c r="F10" t="n">
         <v>8.196941862987455</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>7.165178581027884</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>8.506875368359232</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>7.545791852211184</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>7.932880021631681</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>7.275147106227721</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7.514782723438866</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>6.957188623780022</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>7.485395370247831</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>6.77652992408499</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>6.039357723460649</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>4.046936095863913</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>7.505851357816367</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>6.977279923499926</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>7.133595954488497</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>7.047843151469233</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>7.813399402800811</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>7.172809928747767</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>6.456500904106854</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>3.658109489403475</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>2.666740845049973</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>8.802397417182037</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>7.2335855544804</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>8.370871412232301</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>5.333286376671349</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>5.522557350099754</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>7.162721301400018</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>8.230255800441366</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>7.014997302659264</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>7.566412927455101</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>6.173839015923013</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>9.551328288182463</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>6.671905621688095</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>5.083209063212051</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
         <v>4.63901075004328</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
         <v>8.689952286141828</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AP10" t="n">
         <v>8.329468598741332</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AQ10" t="n">
         <v>7.20208054018534</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>9.460744088498403</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>3.026803854428818</v>
+        <v>10.39226439263342</v>
       </c>
       <c r="D11" t="n">
+        <v>4.930973866668332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.237268734803212</v>
+      </c>
+      <c r="F11" t="n">
         <v>7.697973307801184</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>7.959282511714668</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>7.806759221485118</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>7.466355604028187</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>8.639849116919036</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>7.490953260404851</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>8.006515331479674</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>7.74937082130505</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>7.869276460415091</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>7.724684872997488</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>7.66775589087376</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>7.907881401625194</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>7.796922018248452</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>6.749835700923703</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>7.645631483687644</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>7.467498359302812</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>8.125721794002306</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>8.023114999196821</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>7.246673250955017</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>7.522615262439768</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>7.480081752263923</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>9.246733326215494</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>7.761356052628358</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>8.268820535567428</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>6.882355164409487</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>8.388868918022606</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>7.141754506853408</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>8.455609013202199</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>5.877505627696721</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>7.308449853451592</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>7.108308181870242</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>8.22675445227414</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>6.99417022816358</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>7.075322793742276</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>6.959143299636388</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>8.729454943159393</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AP11" t="n">
         <v>4.31955972487928</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AQ11" t="n">
         <v>3.454346412162844</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>10.21922072877195</v>
       </c>
     </row>
@@ -3045,7 +3369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AP11"/>
+  <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3053,15 +3377,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:44">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3070,1271 +3397,1424 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7356716689716452</v>
+        <v>0.753070174416744</v>
       </c>
       <c r="D2" t="n">
+        <v>0.6952615406657288</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5074565722353777</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5761381523131391</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.5830797548731228</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.569869623640431</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.574551846617336</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.5766799209730397</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.6986229796644463</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.5931442460338768</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.6640959677808053</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.5830849546323479</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.725559045522568</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.5812049649066156</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.5787925067869854</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.5738909155573451</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>0.6226600609200987</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>0.5938969900416416</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>0.5827128813286619</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>0.5752893810152035</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>0.6278046250867311</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>0.5821408423624056</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>0.5869248460480497</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.6849996609872806</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>0.5694314658270478</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>0.6349478686822895</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>0.5769578219244899</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>0.5804465005840895</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>0.5711284373962046</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>0.6358909370519197</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>0.5687633962158447</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>0.7075342560266903</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>0.5656387343053026</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>0.6350741427731023</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>0.5903458618010664</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>0.5944899647850778</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>0.5727774597530153</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>0.574008698646008</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
         <v>0.5634218363166058</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
         <v>0.5791870874714871</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
         <v>0.5558713711561938</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>0.7113716932898642</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6740326623169093</v>
+        <v>0.6900798574491452</v>
       </c>
       <c r="D3" t="n">
+        <v>0.7291015897775237</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4977578725148378</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.6874660618198809</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.5749559414030042</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.5782626580895489</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.5679041240716491</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.584914290646408</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.681062720606625</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.5781970046735302</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6447729828905066</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.5948772541194579</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.6726381040513697</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.5716265968968882</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.6298027500321175</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.5744745894480207</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.5847101492449847</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.5725915108927816</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>0.701397991114778</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>0.5713892543467476</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.6558398867873459</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>0.5847689982969735</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>0.6003514393337077</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.5944852382486849</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>0.5977817286115549</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>0.7538363829722292</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>0.57271897714259</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>0.6037931366604489</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>0.5650380821513967</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>0.729814338876437</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>0.5933249055249896</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>0.5773015208246036</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>0.7425795464935918</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>0.7181574189896467</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>0.7286611569214737</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>0.603441678647634</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>0.5643102906286731</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
         <v>0.5863237495509729</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
         <v>0.5963072090780012</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
         <v>0.5813493692256022</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>0.5844236437120008</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>0.7487202567134944</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7326710006945525</v>
+        <v>0.7632461470352619</v>
       </c>
       <c r="D4" t="n">
+        <v>0.7622656223716796</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.498141531212974</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.7469702930517262</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.7386900441139167</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.5761832634027491</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.5711688780595807</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.5743172050596476</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.5739963516889516</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.5725206732857793</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.574750693027299</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.5953935747929603</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.5815877956059486</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.6015575472206632</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.5794166093194553</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>0.5718611998911136</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.632416901923225</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.5714102108186528</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.6234925984474451</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0.6021521255369277</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>0.5765308568878331</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>0.5795531472851196</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>0.5906169908640935</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.572161644441295</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>0.5885924137858687</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>0.5984478081678297</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>0.5629882461466564</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>0.5801319592896923</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>0.6853420511947101</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>0.5821392566400035</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>0.5778580206503353</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>0.5932229730795036</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>0.5676308087017566</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>0.5928861780502326</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>0.5574149838869235</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>0.6305877080544028</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>0.7719102980883034</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>0.582536072907097</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>0.5885344224452744</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>0.6130685296256804</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>0.5516049214460765</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>0.7693054342231512</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7180998502116377</v>
+        <v>0.7322638289918616</v>
       </c>
       <c r="D5" t="n">
+        <v>0.6843143808612153</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4990102607255294</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.5703062848953079</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.5697397186590166</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.5664823936557363</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.6434052270064474</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.5760131333496525</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.7237374728877196</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.666370120625918</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5795833423768503</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.6402512358751875</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.6992358421218018</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.7278754018744011</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.6940560720430174</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.6124376580543976</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.6778650695456624</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.6312619173411124</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.6787598113196329</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0.5719067640848717</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.7240822554758134</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>0.5785595220396602</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>0.6027807518518918</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.5898193038628341</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>0.5744070115482504</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>0.5729575500980495</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>0.5664950182810401</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>0.578837905042598</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>0.5614758310629742</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>0.6843094030567867</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>0.6749272523036253</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>0.7182133736479787</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>0.5640576838710033</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>0.5786619544106298</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>0.5600923225564789</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
         <v>0.5753490872549977</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>0.6787626840445322</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
         <v>0.57754595261951</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
         <v>0.60997874061831</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
         <v>0.7390287503641284</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5" t="n">
         <v>0.5515774091414516</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>0.6999851949986245</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6348861977929179</v>
+        <v>0.6429603970685457</v>
       </c>
       <c r="D6" t="n">
+        <v>0.6227011395895284</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4970505440080511</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.6118051851305637</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.6715546417412341</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.5758394264692319</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.7172650520265477</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.5856574714975153</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.5714743108638288</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.5750978566758995</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6463145839198621</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.6874240921738485</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.6831976519542016</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.5807735223169481</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.6685312281863097</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.5735127096691952</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.5793586775797339</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.5747125025362196</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>0.6912871741199932</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>0.57631826452546</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>0.5823547537447735</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>0.5810348101100752</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>0.5630524899728673</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5851790838256906</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>0.5656485525753266</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>0.6898329334868499</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>0.5619159407650248</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>0.5834574857722346</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>0.6542210346237008</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>0.5699175057637665</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>0.6315060140791352</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>0.5941279547620325</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>0.5990485356920984</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>0.5842968395597316</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>0.7770147262775303</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>0.5696642201306269</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>0.7016815961074901</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
         <v>0.7264404724805562</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
         <v>0.6363829704942815</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
         <v>0.6394958477540181</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>0.5516050976487156</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>0.5794838867687204</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7379292672917495</v>
+        <v>0.7398677887416598</v>
       </c>
       <c r="D7" t="n">
+        <v>0.7551095294812313</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4952342166070691</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.5754922089179675</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.5793995839002563</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.5683126314694544</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.620195272585088</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.6227623788256628</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.5796998894478073</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.5895434405446153</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6653497183399609</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.5808704336247158</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>0.5763616571562141</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>0.5786188424308547</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>0.6050782547307021</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>0.6922799263034668</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.5805203610940711</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>0.5960535307435609</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.5761205670058599</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>0.5850800333925239</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.6772982485495788</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>0.5843434503306937</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>0.5727810186558658</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.5797634540379321</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>0.7609608134259075</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>0.5722727516474015</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
         <v>0.6070146104343755</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>0.5775035917857404</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>0.5677900031789253</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>0.7436702385541479</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>0.5661826371106045</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>0.5804216828190898</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>0.731769356725692</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>0.5759546111581582</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>0.5632799757067265</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>0.5860930961621135</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>0.762268606753616</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AN7" t="n">
         <v>0.5754572054957636</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
         <v>0.6776956432095661</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
         <v>0.7138490806202781</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
         <v>0.6714141162986574</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>0.7281528676223278</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6669753369745348</v>
+        <v>0.6787914248233382</v>
       </c>
       <c r="D8" t="n">
+        <v>0.6414754019212097</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.499390425806646</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.5679987359791144</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.6145826801413926</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.5652136590587419</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.6210212480274846</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.581200741786615</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.6336330132492097</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.5688419033783506</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6647592530414955</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.748524043572012</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.5846738212032381</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.5816942279497943</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.6967018588629935</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>0.6721216690280758</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.6620173370619055</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>0.5945951169608339</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>0.602535140203274</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>0.5672912330382763</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>0.5792675553864699</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>0.5731352890595024</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>0.5637626559469183</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.6054103439267796</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>0.5665345563030746</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>0.663776582126405</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>0.5709132836291132</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>0.6103649238228812</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>0.6652050845365601</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>0.573625431886165</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>0.5626922454162443</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>0.5580068107526371</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>0.5643656549875471</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>0.7076717943445675</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>0.6679534524304076</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>0.5564927915727802</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>0.6559231412652796</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>0.5739624771825433</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>0.5659956240430188</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
         <v>0.5919274109260249</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>0.5516051300226821</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>0.6024559871587951</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6852829170635342</v>
+        <v>0.6683524025474418</v>
       </c>
       <c r="D9" t="n">
+        <v>0.7377335990621008</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4980366613406317</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.6502087006495084</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.604981318982037</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0.567804110954141</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.6829189306662833</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.6590647920679017</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>0.6519540868761284</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.7166557642767402</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.7223507292851464</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.6018040173959794</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.6462438002039832</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.6783513688950026</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.6127883576355432</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>0.7092706594278613</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.6541683811679788</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>0.5784249958703925</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>0.6488301281039364</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>0.5708308520346371</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>0.5752292928591672</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>0.7001835963262882</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>0.7050110622943075</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.5731666459533015</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>0.5803574215619367</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>0.6015757445153591</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>0.590539330019728</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>0.6519277734465607</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>0.6205070463177325</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>0.5796861037832086</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>0.6541821235993188</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>0.5727199133374178</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>0.55748087793589</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>0.6696210032931251</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>0.5588515968582327</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>0.5648886093520158</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>0.5979959274782874</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>0.7375555105371334</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>0.5581610252766811</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AP9" t="n">
         <v>0.6540425347967272</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>0.6111982143456943</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>0.7445260382169957</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7310895076032358</v>
+        <v>0.7434254489727923</v>
       </c>
       <c r="D10" t="n">
+        <v>0.7229150270116662</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4978999725572058</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.5679553173586278</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.5948897043906304</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0.7510948446201178</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.7405630037084149</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.6680731165378727</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>0.6030130821296737</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.5705092488012785</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6676745798280646</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.7401965675148878</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.6249823365601429</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.6832413198800477</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0.5722986258252819</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>0.5674340813426806</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.62215952154208</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>0.6388079085718141</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>0.5975830818069374</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>0.5688846448001122</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>0.6977139218302904</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>0.5695771426469405</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>0.5949740245873871</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.5804688860697634</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>0.6565791299045526</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>0.5750315508515391</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>0.7588734603970884</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>0.6356860494896206</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>0.5609032018261739</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>0.5803803272873186</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>0.5697323434738005</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>0.6014424761818</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>0.5783224241900572</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>0.5783491979076675</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>0.6111319777347067</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>0.5860594799742803</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>0.5689648323847298</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
         <v>0.5765312006990135</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
         <v>0.7062806039097058</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AP10" t="n">
         <v>0.6924608157789541</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AQ10" t="n">
         <v>0.5516027976814085</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>0.7661280192987324</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7045692187316808</v>
+        <v>0.6625171488390987</v>
       </c>
       <c r="D11" t="n">
+        <v>0.7346380226006769</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4975026041834177</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.5685482391346266</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.5859213152047005</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>0.5730150375527129</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.572153915180687</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>0.5924031991364755</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.6798212426286048</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.570500836875302</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7245106782968183</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.6547726650651781</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>0.7295093645876161</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0.5674951078542243</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>0.7163968132229481</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>0.62838501112053</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.694464883441242</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>0.6488220460108474</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>0.6901216758354641</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>0.5649703180221944</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>0.7260750999277873</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>0.5725637237177585</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>0.5694484515855345</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.5769673386085218</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>0.5583986520544779</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>0.7741867864079421</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>0.561046214699685</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>0.6092079144111122</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>0.5569487951446479</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>0.575651658480929</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>0.7404974247213325</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>0.5778354988237395</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>0.5700464723763619</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>0.5752662542981056</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>0.6203814934222358</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>0.573621554262421</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>0.7414141303377924</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>0.5703877890659003</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>0.5619136368890532</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AP11" t="n">
         <v>0.5640903844854671</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AQ11" t="n">
         <v>0.5516051075184607</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>0.7131116076481894</v>
       </c>
     </row>

--- a/25/After_Soc_EEH2.xlsx
+++ b/25/After_Soc_EEH2.xlsx
@@ -593,130 +593,130 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2902750186550282</v>
+        <v>0.2902750186547693</v>
       </c>
       <c r="D2" t="n">
-        <v>2.151486569120379</v>
+        <v>2.151486569119853</v>
       </c>
       <c r="E2" t="n">
-        <v>3.994682206887823</v>
+        <v>3.994682206887317</v>
       </c>
       <c r="F2" t="n">
-        <v>1.729462717320646</v>
+        <v>1.729462717320148</v>
       </c>
       <c r="G2" t="n">
-        <v>2.759290799907694</v>
+        <v>2.759290799907637</v>
       </c>
       <c r="H2" t="n">
-        <v>4.075760512416624</v>
+        <v>4.075760512416633</v>
       </c>
       <c r="I2" t="n">
-        <v>5.800965883454979</v>
+        <v>5.800965883455084</v>
       </c>
       <c r="J2" t="n">
-        <v>2.509751767053534</v>
+        <v>2.509751767053544</v>
       </c>
       <c r="K2" t="n">
-        <v>0.75515159078329</v>
+        <v>0.7551515907827475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8286712590091029</v>
+        <v>0.8286712590086638</v>
       </c>
       <c r="M2" t="n">
-        <v>2.395710512430234</v>
+        <v>2.39571051243012</v>
       </c>
       <c r="N2" t="n">
-        <v>2.888505142925573</v>
+        <v>2.888505142925808</v>
       </c>
       <c r="O2" t="n">
-        <v>1.034008133179378</v>
+        <v>1.03400813317983</v>
       </c>
       <c r="P2" t="n">
-        <v>1.274898566385927</v>
+        <v>1.274898566385838</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.294406809751198</v>
+        <v>1.294406809751328</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3171449157890397</v>
+        <v>0.3171449157893841</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3976984465185804</v>
+        <v>0.3976984465180585</v>
       </c>
       <c r="T2" t="n">
-        <v>1.625624540167098</v>
+        <v>1.625624540166809</v>
       </c>
       <c r="U2" t="n">
-        <v>2.681975441520882</v>
+        <v>2.681975441520208</v>
       </c>
       <c r="V2" t="n">
-        <v>2.525330608363196</v>
+        <v>2.525330608363167</v>
       </c>
       <c r="W2" t="n">
-        <v>1.929086868709303</v>
+        <v>1.929086868709948</v>
       </c>
       <c r="X2" t="n">
-        <v>2.478710369484677</v>
+        <v>2.478710369484325</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.687341198486857</v>
+        <v>0.6873411984871544</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.592084971027178</v>
+        <v>1.592084971027624</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.22728974697894</v>
+        <v>1.227289746979259</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7073301023842653</v>
+        <v>0.7073301023843392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.044887434785376</v>
+        <v>1.044887434785595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.164348547034962</v>
+        <v>1.164348547035083</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9601556265819203</v>
+        <v>0.960155626581906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168668438917688</v>
+        <v>1.168668438917787</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.976065954464484</v>
+        <v>0.9760659544647701</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7414182714490621</v>
+        <v>0.7414182714482708</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6077646098855536</v>
+        <v>0.6077646098849034</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.18949990066902</v>
+        <v>1.189499900669117</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.8752360539113309</v>
+        <v>0.8752360539113198</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.134495058429545</v>
+        <v>2.134495058429478</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.185969475285342</v>
+        <v>2.185969475285782</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.353733691579615</v>
+        <v>2.35373369157943</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.071371086109353</v>
+        <v>2.071371086109459</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.678427974690266</v>
+        <v>3.67842797469019</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.391478084896384</v>
+        <v>1.391478084895541</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9779113301478174</v>
+        <v>0.9779113301477621</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -724,130 +724,130 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7559123367476021</v>
+        <v>0.7559123367475645</v>
       </c>
       <c r="D3" t="n">
-        <v>9.331525407519873</v>
+        <v>9.33152540751983</v>
       </c>
       <c r="E3" t="n">
-        <v>19.1652168866722</v>
+        <v>19.16521688667238</v>
       </c>
       <c r="F3" t="n">
-        <v>2.830903312029674</v>
+        <v>2.830903312029323</v>
       </c>
       <c r="G3" t="n">
-        <v>3.64052667507433</v>
+        <v>3.640526675074331</v>
       </c>
       <c r="H3" t="n">
-        <v>7.561707780016279</v>
+        <v>7.561707780016572</v>
       </c>
       <c r="I3" t="n">
-        <v>7.740829531142049</v>
+        <v>7.740829531141625</v>
       </c>
       <c r="J3" t="n">
-        <v>2.854018443106428</v>
+        <v>2.854018443106516</v>
       </c>
       <c r="K3" t="n">
-        <v>2.183741795445938</v>
+        <v>2.183741795446084</v>
       </c>
       <c r="L3" t="n">
-        <v>1.911973990872536</v>
+        <v>1.911973990872629</v>
       </c>
       <c r="M3" t="n">
-        <v>1.825652528417183</v>
+        <v>1.825652528417497</v>
       </c>
       <c r="N3" t="n">
-        <v>1.938148172152368</v>
+        <v>1.938148172152722</v>
       </c>
       <c r="O3" t="n">
-        <v>1.627139381923336</v>
+        <v>1.627139381923301</v>
       </c>
       <c r="P3" t="n">
-        <v>1.892674832715061</v>
+        <v>1.892674832715149</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.877590349078016</v>
+        <v>3.877590349078144</v>
       </c>
       <c r="R3" t="n">
-        <v>3.572844389857218</v>
+        <v>3.572844389857268</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5168308129327356</v>
+        <v>0.5168308129327477</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44917004396407</v>
+        <v>1.449170043963946</v>
       </c>
       <c r="U3" t="n">
-        <v>4.803909444852484</v>
+        <v>4.803909444852295</v>
       </c>
       <c r="V3" t="n">
-        <v>3.313091099717379</v>
+        <v>3.313091099716674</v>
       </c>
       <c r="W3" t="n">
-        <v>6.114271900684153</v>
+        <v>6.114271900683915</v>
       </c>
       <c r="X3" t="n">
-        <v>13.85025947637094</v>
+        <v>13.85025947637146</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4191694409160217</v>
+        <v>0.4191694409156054</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.666637403794843</v>
+        <v>0.6666374037948612</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4426903679592915</v>
+        <v>0.4426903679597275</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.599500043119676</v>
+        <v>3.599500043119608</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.343784193026014</v>
+        <v>7.343784193026202</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.607693983001147</v>
+        <v>7.607693983001207</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.432713961709513</v>
+        <v>6.432713961709796</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.666256530922996</v>
+        <v>1.666256530923194</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.413769757267227</v>
+        <v>1.413769757267779</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7208955950793323</v>
+        <v>0.7208955950797035</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6151068474894154</v>
+        <v>0.6151068474890766</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3368346276303321</v>
+        <v>0.3368346276289499</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.5569100763287612</v>
+        <v>0.5569100763285566</v>
       </c>
       <c r="AL3" t="n">
-        <v>10.57909215264351</v>
+        <v>10.57909215264344</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.914921226522409</v>
+        <v>6.914921226522392</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.236750603184164</v>
+        <v>2.236750603183914</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.922390418529063</v>
+        <v>4.922390418528712</v>
       </c>
       <c r="AP3" t="n">
-        <v>11.73215624595616</v>
+        <v>11.73215624595848</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.621249014542992</v>
+        <v>1.621249014543297</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.4901748855017538</v>
+        <v>0.490174885501819</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -855,130 +855,130 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7214912072727386</v>
+        <v>0.7214912072727769</v>
       </c>
       <c r="D4" t="n">
-        <v>9.618585947155552</v>
+        <v>9.618585947155458</v>
       </c>
       <c r="E4" t="n">
-        <v>16.97476342391077</v>
+        <v>16.97476342391059</v>
       </c>
       <c r="F4" t="n">
-        <v>2.866338464623421</v>
+        <v>2.866338464623365</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38542144063392</v>
+        <v>1.385421440634298</v>
       </c>
       <c r="H4" t="n">
-        <v>3.187541211005106</v>
+        <v>3.187541211007298</v>
       </c>
       <c r="I4" t="n">
-        <v>3.557470050464074</v>
+        <v>3.557470050463952</v>
       </c>
       <c r="J4" t="n">
-        <v>1.470499412571846</v>
+        <v>1.470499412572007</v>
       </c>
       <c r="K4" t="n">
-        <v>1.563756803855978</v>
+        <v>1.563756803855546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3293750593173816</v>
+        <v>0.3293750593173297</v>
       </c>
       <c r="M4" t="n">
-        <v>0.886627749797385</v>
+        <v>0.8866277497963094</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06719397642007</v>
+        <v>1.067193976419681</v>
       </c>
       <c r="O4" t="n">
-        <v>1.220354530693344</v>
+        <v>1.220354530692929</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7461804420552763</v>
+        <v>0.7461804420551591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.019524500460206</v>
+        <v>1.019524500460202</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4900839862615396</v>
+        <v>0.4900839862617904</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9446825619108055</v>
+        <v>0.9446825619096889</v>
       </c>
       <c r="T4" t="n">
-        <v>1.096395216172125</v>
+        <v>1.096395216172579</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1248568235209441</v>
+        <v>0.1248568235223015</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2201776494861631</v>
+        <v>0.220177649486199</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5740367542853928</v>
+        <v>0.5740367542856381</v>
       </c>
       <c r="X4" t="n">
-        <v>0.719907820100543</v>
+        <v>0.7199078201009198</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.099758586609338</v>
+        <v>1.099758586609533</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.619130952969342</v>
+        <v>1.619130952969385</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1948959746055143</v>
+        <v>0.194895974605534</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8378976694953408</v>
+        <v>0.8378976694955008</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.382181669113318</v>
+        <v>2.382181669112129</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.817077860736219</v>
+        <v>4.817077860736394</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.589382586480012</v>
+        <v>1.58938258648088</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5554949527036984</v>
+        <v>0.5554949527041805</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.4034694468615665</v>
+        <v>0.4034694468614494</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9294967428105292</v>
+        <v>0.929496742810498</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7854474736650318</v>
+        <v>0.7854474736649961</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.165067784156331</v>
+        <v>1.165067784156401</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7656531779004142</v>
+        <v>0.7656531779004709</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.8542918531444051</v>
+        <v>0.8542918531443305</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.115083176335937</v>
+        <v>1.115083176336062</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.910800292137286</v>
+        <v>1.910800292136867</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.109829243252634</v>
+        <v>1.109829243252717</v>
       </c>
       <c r="AP4" t="n">
-        <v>38.2541183774896</v>
+        <v>38.25411837748969</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12.35443911699928</v>
+        <v>12.35443911699926</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.4645516687363653</v>
+        <v>0.4645516687366317</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -986,130 +986,130 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9495358308628342</v>
+        <v>0.9495358308628844</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9677903833254928</v>
+        <v>0.9677903833252665</v>
       </c>
       <c r="E5" t="n">
-        <v>1.449810790767129</v>
+        <v>1.449810790767087</v>
       </c>
       <c r="F5" t="n">
-        <v>2.868084001484707</v>
+        <v>2.868084001484414</v>
       </c>
       <c r="G5" t="n">
-        <v>3.771520942791504</v>
+        <v>3.771520942791414</v>
       </c>
       <c r="H5" t="n">
-        <v>2.918273667555866</v>
+        <v>2.918273667555838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.57301845280493</v>
+        <v>0.5730184528049406</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6001611126955436</v>
+        <v>0.6001611126953482</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1322720496267383</v>
+        <v>0.1322720496266257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1832872987195387</v>
+        <v>0.1832872987195264</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2496250334638055</v>
+        <v>0.2496250334639188</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1232693495197565</v>
+        <v>0.1232693495197884</v>
       </c>
       <c r="O5" t="n">
-        <v>0.100388590072968</v>
+        <v>0.1003885900734532</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07384735406204034</v>
+        <v>0.07384735406222107</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09446033888466127</v>
+        <v>0.09446033888489912</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06957208406000247</v>
+        <v>0.06957208405991826</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1237439241138337</v>
+        <v>0.1237439241138177</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1504383034042132</v>
+        <v>0.1504383034044981</v>
       </c>
       <c r="U5" t="n">
-        <v>1.285479434653962</v>
+        <v>1.285479434654477</v>
       </c>
       <c r="V5" t="n">
-        <v>1.500112972952093</v>
+        <v>1.500112972952573</v>
       </c>
       <c r="W5" t="n">
-        <v>4.119979137123311</v>
+        <v>4.119979137124049</v>
       </c>
       <c r="X5" t="n">
-        <v>6.04876837772585</v>
+        <v>6.048768377725145</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5899519352485433</v>
+        <v>0.5899519352485239</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2476702774070424</v>
+        <v>0.2476702774067798</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7818081946286468</v>
+        <v>0.7818081946291044</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.001049953050405</v>
+        <v>1.001049953050112</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.219174323676452</v>
+        <v>1.219174323676635</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.295367498319575</v>
+        <v>2.295367498319594</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7006158674703239</v>
+        <v>0.7006158674697175</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.111134179403672</v>
+        <v>0.1111341794037138</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.06972564703783918</v>
+        <v>0.06972564703771884</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.3504625992934955</v>
+        <v>0.3504625992938658</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3307887709185334</v>
+        <v>0.3307887709181976</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.4680403530246384</v>
+        <v>0.4680403530248497</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4087452767974317</v>
+        <v>0.4087452767974342</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.5109424146141099</v>
+        <v>0.5109424146141531</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3704692057258701</v>
+        <v>0.3704692057258825</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.598476945844744</v>
+        <v>0.598476945845035</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.09318964025042141</v>
+        <v>0.0931896402505728</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.243427590979259</v>
+        <v>1.24342759097906</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7663010814185568</v>
+        <v>0.7663010814183624</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1010053250310237</v>
+        <v>0.1010053250310955</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1117,130 +1117,130 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07084055112572915</v>
+        <v>0.0708405511260143</v>
       </c>
       <c r="D6" t="n">
-        <v>6.296142115076747</v>
+        <v>6.296142115076776</v>
       </c>
       <c r="E6" t="n">
-        <v>12.91726549984665</v>
+        <v>12.91726549984627</v>
       </c>
       <c r="F6" t="n">
-        <v>2.52730110321437</v>
+        <v>2.527301103214439</v>
       </c>
       <c r="G6" t="n">
-        <v>2.094675024931619</v>
+        <v>2.094675024931832</v>
       </c>
       <c r="H6" t="n">
-        <v>1.334422146955804</v>
+        <v>1.334422146955622</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3878978061008719</v>
+        <v>0.3878978061007395</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3851746869887557</v>
+        <v>0.3851746869888965</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3576941293049644</v>
+        <v>0.3576941293047002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3609546294562044</v>
+        <v>0.3609546294567524</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06876842660117868</v>
+        <v>0.06876842660142075</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08107004350489184</v>
+        <v>0.08107004350564399</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1230903342351559</v>
+        <v>0.1230903342350385</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1026122507567854</v>
+        <v>0.102612250756284</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.278346540326286</v>
+        <v>8.278346540325986</v>
       </c>
       <c r="R6" t="n">
-        <v>11.30908264489051</v>
+        <v>11.30908264489062</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1967384762141145</v>
+        <v>0.1967384762143402</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1600191371170519</v>
+        <v>0.1600191371172714</v>
       </c>
       <c r="U6" t="n">
-        <v>2.7389114811351</v>
+        <v>2.738911481134763</v>
       </c>
       <c r="V6" t="n">
-        <v>3.423418639893312</v>
+        <v>3.423418639893249</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14942620721703</v>
+        <v>2.149426207217152</v>
       </c>
       <c r="X6" t="n">
-        <v>1.915647830618941</v>
+        <v>1.915647830619329</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4615831358409364</v>
+        <v>0.4615831358409156</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5193963618567214</v>
+        <v>0.519396361857291</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4244267458709378</v>
+        <v>0.4244267458707628</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.60495257098017</v>
+        <v>12.60495257098049</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.612807430311472</v>
+        <v>7.612807430311479</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.328717398896546</v>
+        <v>1.328717398896544</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.647457099301679</v>
+        <v>1.647457099301617</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.397971190704204</v>
+        <v>2.397971190703864</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.179541967193786</v>
+        <v>0.1795419671938176</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2075674449699701</v>
+        <v>0.2075674449701754</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8539525707730422</v>
+        <v>0.8539525707727956</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.644653718167524</v>
+        <v>1.644653718167162</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7763893763288745</v>
+        <v>0.7763893763290046</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5791204733487765</v>
+        <v>0.5791204733485396</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7766278678321133</v>
+        <v>0.7766278678319436</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.240401854772716</v>
+        <v>1.240401854772404</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.08481341889721471</v>
+        <v>0.08481341889705084</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.402333837844627</v>
+        <v>6.402333837844172</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.383674532037183</v>
+        <v>3.383674532037087</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.06862891315831174</v>
+        <v>0.06862891315828255</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1248,130 +1248,130 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.695863821506149</v>
+        <v>0.6958638215063304</v>
       </c>
       <c r="D7" t="n">
-        <v>7.106159235147787</v>
+        <v>7.106159235147783</v>
       </c>
       <c r="E7" t="n">
-        <v>19.99628947683936</v>
+        <v>19.9962894768394</v>
       </c>
       <c r="F7" t="n">
-        <v>2.539955174872173</v>
+        <v>2.539955174874091</v>
       </c>
       <c r="G7" t="n">
-        <v>8.005914766085127</v>
+        <v>8.005914766084647</v>
       </c>
       <c r="H7" t="n">
-        <v>7.447187620986057</v>
+        <v>7.447187620986477</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3390063793216906</v>
+        <v>0.3390063793209718</v>
       </c>
       <c r="J7" t="n">
-        <v>3.069855656669529</v>
+        <v>3.069855656669471</v>
       </c>
       <c r="K7" t="n">
-        <v>4.868504122642579</v>
+        <v>4.868504122642587</v>
       </c>
       <c r="L7" t="n">
-        <v>3.763260867345474</v>
+        <v>3.763260867342343</v>
       </c>
       <c r="M7" t="n">
-        <v>8.390044977938039</v>
+        <v>8.390044977939331</v>
       </c>
       <c r="N7" t="n">
-        <v>2.29489580066692</v>
+        <v>2.294895800667677</v>
       </c>
       <c r="O7" t="n">
-        <v>1.215148026795753</v>
+        <v>1.215148026796265</v>
       </c>
       <c r="P7" t="n">
-        <v>1.443123158326693</v>
+        <v>1.443123158326611</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.338833299656579</v>
+        <v>1.338833299656996</v>
       </c>
       <c r="R7" t="n">
-        <v>2.466129581117002</v>
+        <v>2.466129581116681</v>
       </c>
       <c r="S7" t="n">
-        <v>1.756120759406828</v>
+        <v>1.756120759406468</v>
       </c>
       <c r="T7" t="n">
-        <v>4.210940850450497</v>
+        <v>4.210940850450493</v>
       </c>
       <c r="U7" t="n">
-        <v>5.946855078022454</v>
+        <v>5.946855078022561</v>
       </c>
       <c r="V7" t="n">
-        <v>1.529607298248022</v>
+        <v>1.52960729824825</v>
       </c>
       <c r="W7" t="n">
-        <v>8.590960638686582</v>
+        <v>8.590960638686488</v>
       </c>
       <c r="X7" t="n">
-        <v>17.14653789533926</v>
+        <v>17.1465378953396</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.928827604933241</v>
+        <v>4.928827604933331</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.001086818122102</v>
+        <v>1.001086818122412</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.846844142050337</v>
+        <v>6.84684414205055</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.85888008842274</v>
+        <v>11.8588800884227</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.14097561296991</v>
+        <v>4.140975612969621</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.70686886922417</v>
+        <v>13.70686886922389</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.45310808970057</v>
+        <v>10.45310808970068</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.114757400693273</v>
+        <v>1.114757400693307</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.281568406392606</v>
+        <v>6.281568406392565</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.399385958426</v>
+        <v>15.39938595842599</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.579922008702603</v>
+        <v>1.579922008702646</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.152451028268494</v>
+        <v>8.152451028268457</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.366587157543012</v>
+        <v>8.366587157543046</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.19391645189878</v>
+        <v>25.19391645189866</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.3975675886983785</v>
+        <v>0.3975675886979922</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5300658599752324</v>
+        <v>0.5300658599750875</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3683699210816441</v>
+        <v>0.368369921081336</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.47877029425317</v>
+        <v>1.478770294252749</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5979880105212428</v>
+        <v>0.5979880105214418</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.955229460970976</v>
+        <v>1.955229460970952</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1379,130 +1379,130 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05713298879552546</v>
+        <v>0.05713298879523049</v>
       </c>
       <c r="D8" t="n">
-        <v>1.509122307904947</v>
+        <v>1.509122307904964</v>
       </c>
       <c r="E8" t="n">
-        <v>2.125778282793468</v>
+        <v>2.125778282793648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6980288254677864</v>
+        <v>0.6980288254679894</v>
       </c>
       <c r="G8" t="n">
-        <v>0.95008866994206</v>
+        <v>0.9500886699421199</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9547447439050072</v>
+        <v>0.9547447439052906</v>
       </c>
       <c r="I8" t="n">
-        <v>1.124895197594336</v>
+        <v>1.124895197595022</v>
       </c>
       <c r="J8" t="n">
-        <v>1.073263804518398</v>
+        <v>1.07326380451878</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3112051122789055</v>
+        <v>0.3112051122788945</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3284245066523483</v>
+        <v>0.3284245066521418</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06232514417387469</v>
+        <v>0.06232514417415244</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4514750705397282</v>
+        <v>0.4514750705396382</v>
       </c>
       <c r="O8" t="n">
-        <v>1.031947692287773</v>
+        <v>1.031947692287519</v>
       </c>
       <c r="P8" t="n">
-        <v>1.137798823352745</v>
+        <v>1.137798823352894</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1745972096295175</v>
+        <v>0.1745972096284634</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07008498809232956</v>
+        <v>0.07008498809184337</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06556912100485884</v>
+        <v>0.06556912100457152</v>
       </c>
       <c r="T8" t="n">
-        <v>1.644378825752305</v>
+        <v>1.644378825749814</v>
       </c>
       <c r="U8" t="n">
-        <v>3.083416426150864</v>
+        <v>3.083416426150943</v>
       </c>
       <c r="V8" t="n">
-        <v>5.117414720017266</v>
+        <v>5.117414720017435</v>
       </c>
       <c r="W8" t="n">
-        <v>10.43829726798988</v>
+        <v>10.43829726798829</v>
       </c>
       <c r="X8" t="n">
-        <v>5.501529841709258</v>
+        <v>5.501529841708459</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.054310081605392</v>
+        <v>6.054310081606188</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.706137688021362</v>
+        <v>1.706137688021407</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.772071821211327</v>
+        <v>1.772071821211366</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.230816518123834</v>
+        <v>4.230816518123681</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.103846280778792</v>
+        <v>6.103846280778745</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.774731556773925</v>
+        <v>1.774731556774954</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.921409131392078</v>
+        <v>1.921409131393489</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5519987088037566</v>
+        <v>0.5519987088038016</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.4948812285828472</v>
+        <v>0.4948812285826679</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.337653565360032</v>
+        <v>0.3376535653600361</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2952738988092516</v>
+        <v>0.2952738988093336</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.8538891474535881</v>
+        <v>0.8538891474532697</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.8133292122615389</v>
+        <v>0.8133292122610523</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6821868014672091</v>
+        <v>0.6821868014686042</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.475245932153586</v>
+        <v>2.475245932154102</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.96431890372507</v>
+        <v>5.964318903722775</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.174615439753912</v>
+        <v>0.1746154397532891</v>
       </c>
       <c r="AP8" t="n">
-        <v>6.37835199584111</v>
+        <v>6.378351995841167</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.331122148610087</v>
+        <v>5.331122148610079</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.08696430707714534</v>
+        <v>0.08696430707703791</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1510,130 +1510,130 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05692534244488764</v>
+        <v>0.05692534244450519</v>
       </c>
       <c r="D9" t="n">
-        <v>1.205077328048639</v>
+        <v>1.205077328048603</v>
       </c>
       <c r="E9" t="n">
-        <v>1.724896494623813</v>
+        <v>1.724896494623743</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9627198670266615</v>
+        <v>0.9627198670263389</v>
       </c>
       <c r="G9" t="n">
-        <v>1.128076260906486</v>
+        <v>1.128076260906725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2061733877327177</v>
+        <v>0.2061733877327546</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3178244791371863</v>
+        <v>0.3178244791372019</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2190908798951871</v>
+        <v>0.2190908798954192</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1107722091027675</v>
+        <v>0.1107722091027871</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6299495077425621</v>
+        <v>0.6299495077425105</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6917154561279427</v>
+        <v>0.6917154561280042</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05980830273201357</v>
+        <v>0.05980830273170679</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07655978967103802</v>
+        <v>0.07655978967114427</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0872029936697601</v>
+        <v>0.08720299366985307</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05354202140601105</v>
+        <v>0.05354202140576536</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05787677129162083</v>
+        <v>0.05787677129189141</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06495150445679605</v>
+        <v>0.06495150445581462</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08115822566441561</v>
+        <v>0.08115822566423252</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4997544119244712</v>
+        <v>0.4997544119245043</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5331137100376169</v>
+        <v>0.5331137100376642</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4211377183999389</v>
+        <v>0.4211377183999705</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7269767473892792</v>
+        <v>0.7269767473893096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.61013294262996</v>
+        <v>1.610132942629768</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.05374899636572</v>
+        <v>1.05374899636585</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1760670254965753</v>
+        <v>0.1760670254972356</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.08454483569145194</v>
+        <v>0.08454483569136373</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.08366601997359786</v>
+        <v>0.08366601997368142</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1583711916596824</v>
+        <v>0.1583711916594263</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7061087393675738</v>
+        <v>0.7061087393675435</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9738349748643151</v>
+        <v>0.9738349748643335</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6872223877692304</v>
+        <v>0.6872223877692865</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8316585215740141</v>
+        <v>0.8316585215740785</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5624957605769156</v>
+        <v>0.5624957605769229</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.281055028650784</v>
+        <v>1.281055028650879</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.247091980166288</v>
+        <v>1.247091980166422</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.687025043527519</v>
+        <v>1.687025043527285</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.8639803323185846</v>
+        <v>0.8639803323184769</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.08799678491707</v>
+        <v>1.08799678491701</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5074157002021303</v>
+        <v>0.5074157002022001</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.18310198432392</v>
+        <v>1.183101984323893</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.9528499096537246</v>
+        <v>0.9528499096538248</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.3784957358634615</v>
+        <v>0.3784957358633032</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1641,130 +1641,130 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1152374743738621</v>
+        <v>0.1152374743738954</v>
       </c>
       <c r="D10" t="n">
-        <v>1.202863483747348</v>
+        <v>1.202863483747228</v>
       </c>
       <c r="E10" t="n">
-        <v>1.759242467066689</v>
+        <v>1.759242467066894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3062995128498585</v>
+        <v>0.3062995128498874</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2301993164148778</v>
+        <v>0.2301993164146191</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2969806677229802</v>
+        <v>0.2969806677229865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3001901879891097</v>
+        <v>0.3001901879895592</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5483256218231088</v>
+        <v>0.5483256218231204</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8966713689897078</v>
+        <v>0.8966713689897371</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3279194022839018</v>
+        <v>0.3279194022852184</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1349202095218711</v>
+        <v>0.1349202095218258</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1918508592885969</v>
+        <v>0.1918508592886143</v>
       </c>
       <c r="O10" t="n">
-        <v>0.725993375177942</v>
+        <v>0.7259933751774416</v>
       </c>
       <c r="P10" t="n">
-        <v>9.791712410570531</v>
+        <v>9.791712410570172</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.02219277683228</v>
+        <v>11.02219277683203</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3179820295454635</v>
+        <v>0.3179820295454365</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09370585792852647</v>
+        <v>0.09370585792842794</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5065124610515693</v>
+        <v>0.506512461051671</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8634670213737207</v>
+        <v>0.8634670213737401</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5593933184680603</v>
+        <v>0.5593933184680332</v>
       </c>
       <c r="W10" t="n">
-        <v>1.043877114235207</v>
+        <v>1.043877114235394</v>
       </c>
       <c r="X10" t="n">
-        <v>1.135781379231502</v>
+        <v>1.135781379231319</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.291907218033494</v>
+        <v>8.291907218033273</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.53583598566923</v>
+        <v>25.53583598566752</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3645047753979252</v>
+        <v>0.3645047753984171</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4893956771754027</v>
+        <v>0.4893956771754777</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3967978583424565</v>
+        <v>0.3967978583423303</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.340785066597443</v>
+        <v>4.340785066596998</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.189428204045544</v>
+        <v>3.189428204045587</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8618328538880958</v>
+        <v>0.8618328538872714</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.750291998762237</v>
+        <v>0.7502919987625422</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.012451554676499</v>
+        <v>1.012451554676337</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.319078422486362</v>
+        <v>1.319078422486083</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.156821435314096</v>
+        <v>2.156821435314151</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.4326278677769489</v>
+        <v>0.4326278677769242</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.098568044351767</v>
+        <v>1.098568044351555</v>
       </c>
       <c r="AM10" t="n">
-        <v>3.180280911277178</v>
+        <v>3.180280911277197</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.248614633779735</v>
+        <v>7.248614633779187</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7973288185355694</v>
+        <v>0.7973288185353535</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.8642106027977248</v>
+        <v>0.8642106027977241</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7543405916808219</v>
+        <v>0.7543405916808127</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.1792921948811684</v>
+        <v>0.1792921948811585</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -1772,130 +1772,130 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06046037550200301</v>
+        <v>0.06046037550194881</v>
       </c>
       <c r="D11" t="n">
-        <v>7.686252361639052</v>
+        <v>7.68625236163906</v>
       </c>
       <c r="E11" t="n">
-        <v>15.09645142996417</v>
+        <v>15.09645142996431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7101605223329163</v>
+        <v>0.7101605223327564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1891008816934182</v>
+        <v>0.1891008816931344</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2733018015115355</v>
+        <v>0.2733018015115157</v>
       </c>
       <c r="I11" t="n">
-        <v>0.323653806823488</v>
+        <v>0.3236538068231514</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07369790214333614</v>
+        <v>0.07369790214323184</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1134548046923171</v>
+        <v>0.1134548046924954</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1035557262688614</v>
+        <v>0.1035557262688087</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1092126716123234</v>
+        <v>0.1092126716124999</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06916284391108878</v>
+        <v>0.06916284391200572</v>
       </c>
       <c r="O11" t="n">
-        <v>0.140992893729873</v>
+        <v>0.140992893729902</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1128252857717411</v>
+        <v>0.1128252857716648</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.165324263733817</v>
+        <v>0.1653242637340239</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1645129075265827</v>
+        <v>0.1645129075266361</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1038116913375548</v>
+        <v>0.1038116913372047</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06224813726639909</v>
+        <v>0.06224813726683412</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4596123810826632</v>
+        <v>0.4596123810826868</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4727793484619914</v>
+        <v>0.4727793484620044</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5340983685536671</v>
+        <v>0.5340983685539219</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4526421469832517</v>
+        <v>0.4526421469833311</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3391422959897682</v>
+        <v>0.3391422959894619</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3580924710483881</v>
+        <v>0.3580924710483732</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1872300748064514</v>
+        <v>0.1872300748064314</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4323392728059626</v>
+        <v>0.4323392728059228</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4101161439039366</v>
+        <v>0.4101161439039168</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4032910450406586</v>
+        <v>0.4032910450404745</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3376620478804812</v>
+        <v>0.3376620478803371</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.406946855156658</v>
+        <v>0.4069468551567809</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5055104706985</v>
+        <v>0.5055104706985359</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.236631676450491</v>
+        <v>1.236631676450316</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.05071148845332</v>
+        <v>1.050711488453282</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5547956009452158</v>
+        <v>0.554795600945345</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3802056168471863</v>
+        <v>0.3802056168473648</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6807296828561322</v>
+        <v>0.6807296828556768</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5174209736068462</v>
+        <v>0.5174209736068994</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9752224119231613</v>
+        <v>0.9752224119233622</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.3017369751835151</v>
+        <v>0.3017369751835395</v>
       </c>
       <c r="AP11" t="n">
-        <v>11.0868550005885</v>
+        <v>11.08685500058847</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.493137273383928</v>
+        <v>8.493137273383955</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.06846734567061473</v>
+        <v>0.06846734567066376</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2170,7 @@
         <v>4.529905717274591</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.238846433284497</v>
+        <v>5.223342557315505</v>
       </c>
       <c r="AQ2" t="n">
         <v>4.836863261911511</v>
@@ -2187,7 +2187,7 @@
         <v>9.300449474239667</v>
       </c>
       <c r="D3" t="n">
-        <v>3.413694087550249</v>
+        <v>3.412402931966001</v>
       </c>
       <c r="E3" t="n">
         <v>4.872616791555604</v>
@@ -2235,7 +2235,7 @@
         <v>6.285402218862257</v>
       </c>
       <c r="T3" t="n">
-        <v>4.59387114743484</v>
+        <v>4.604342351623322</v>
       </c>
       <c r="U3" t="n">
         <v>7.735680942394273</v>
@@ -2265,7 +2265,7 @@
         <v>5.875080326174787</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.510061028934706</v>
+        <v>4.491013409887087</v>
       </c>
       <c r="AE3" t="n">
         <v>8.162931205533395</v>
@@ -2393,7 +2393,7 @@
         <v>6.381720024450424</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.028563297521945</v>
+        <v>2.022763534359496</v>
       </c>
       <c r="AD4" t="n">
         <v>4.034162209850486</v>
@@ -2503,7 +2503,7 @@
         <v>6.249168401208244</v>
       </c>
       <c r="V5" t="n">
-        <v>5.813179423589311</v>
+        <v>5.803833629196788</v>
       </c>
       <c r="W5" t="n">
         <v>4.855919379388419</v>
@@ -2530,7 +2530,7 @@
         <v>4.834096851723147</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.350248215174335</v>
+        <v>7.357007547115219</v>
       </c>
       <c r="AF5" t="n">
         <v>7.21916852046217</v>
@@ -2634,7 +2634,7 @@
         <v>4.392655388998278</v>
       </c>
       <c r="V6" t="n">
-        <v>5.030202546093348</v>
+        <v>5.043447579205931</v>
       </c>
       <c r="W6" t="n">
         <v>5.654918620355073</v>
@@ -2717,7 +2717,7 @@
         <v>5.826724863203441</v>
       </c>
       <c r="F7" t="n">
-        <v>3.048747291485875</v>
+        <v>3.068564083113034</v>
       </c>
       <c r="G7" t="n">
         <v>6.669673626898029</v>
@@ -2810,7 +2810,7 @@
         <v>5.561306464565886</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.396886123237242</v>
+        <v>5.391037105185939</v>
       </c>
       <c r="AL7" t="n">
         <v>4.765215824844764</v>
@@ -2842,19 +2842,19 @@
         <v>10.15741966596659</v>
       </c>
       <c r="D8" t="n">
-        <v>3.490335975221033</v>
+        <v>3.488557481029836</v>
       </c>
       <c r="E8" t="n">
         <v>6.201972009852913</v>
       </c>
       <c r="F8" t="n">
-        <v>6.286582814903857</v>
+        <v>6.294334752888353</v>
       </c>
       <c r="G8" t="n">
         <v>6.594816454284421</v>
       </c>
       <c r="H8" t="n">
-        <v>5.326858169251397</v>
+        <v>5.318558648796571</v>
       </c>
       <c r="I8" t="n">
         <v>7.601897809104282</v>
@@ -2932,7 +2932,7 @@
         <v>7.333741135566497</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.735745184644787</v>
+        <v>6.751745184644787</v>
       </c>
       <c r="AI8" t="n">
         <v>7.817204413397479</v>
@@ -3069,7 +3069,7 @@
         <v>7.763753683545889</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.501836317455263</v>
+        <v>5.517400653625678</v>
       </c>
       <c r="AK9" t="n">
         <v>8.231706375600321</v>
@@ -3212,7 +3212,7 @@
         <v>5.083209063212051</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.63901075004328</v>
+        <v>4.614287185149877</v>
       </c>
       <c r="AO10" t="n">
         <v>8.689952286141828</v>
@@ -3271,7 +3271,7 @@
         <v>7.724684872997488</v>
       </c>
       <c r="P11" t="n">
-        <v>7.66775589087376</v>
+        <v>7.680750643242455</v>
       </c>
       <c r="Q11" t="n">
         <v>7.907881401625194</v>
@@ -3513,130 +3513,130 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.753070174416744</v>
+        <v>0.7530701744163327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6952615406657288</v>
+        <v>0.6952615406652453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5074565722353777</v>
+        <v>0.5074565722353593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5761381523131391</v>
+        <v>0.5761381523131305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5830797548731228</v>
+        <v>0.5830797548731155</v>
       </c>
       <c r="H2" t="n">
-        <v>0.569869623640431</v>
+        <v>0.5698696236404316</v>
       </c>
       <c r="I2" t="n">
-        <v>0.574551846617336</v>
+        <v>0.5745518466173359</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5766799209730397</v>
+        <v>0.5766799209730413</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6986229796644463</v>
+        <v>0.6986229796654635</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5931442460338768</v>
+        <v>0.5931442460340227</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6640959677808053</v>
+        <v>0.6640959677820121</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5830849546323479</v>
+        <v>0.5830849546323484</v>
       </c>
       <c r="O2" t="n">
-        <v>0.725559045522568</v>
+        <v>0.7255590455220937</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5812049649066156</v>
+        <v>0.5812049649066113</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5787925067869854</v>
+        <v>0.5787925067869857</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5738909155573451</v>
+        <v>0.5738909155573432</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6226600609200987</v>
+        <v>0.6226600609199445</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5938969900416416</v>
+        <v>0.5938969900413732</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5827128813286619</v>
+        <v>0.5827128813286366</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5752893810152035</v>
+        <v>0.5752893810152039</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6278046250867311</v>
+        <v>0.6278046250867658</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5821408423624056</v>
+        <v>0.582140842362409</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5869248460480497</v>
+        <v>0.5869248460479652</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6849996609872806</v>
+        <v>0.6849996609872916</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5694314658270478</v>
+        <v>0.5694314658270455</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6349478686822895</v>
+        <v>0.6349478686823056</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5769578219244899</v>
+        <v>0.5769578219244861</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5804465005840895</v>
+        <v>0.5804465005840921</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5711284373962046</v>
+        <v>0.5711284373962036</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6358909370519197</v>
+        <v>0.6358909370520647</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5687633962158447</v>
+        <v>0.5687633962158373</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7075342560266903</v>
+        <v>0.7075342560291153</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5656387343053026</v>
+        <v>0.5656387343053276</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6350741427731023</v>
+        <v>0.6350741427731984</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.5903458618010664</v>
+        <v>0.5903458618010574</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5944899647850778</v>
+        <v>0.5944899647849934</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5727774597530153</v>
+        <v>0.5727774597530128</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.574008698646008</v>
+        <v>0.5740086986460079</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5634218363166058</v>
+        <v>0.5634218363166109</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5791870874714871</v>
+        <v>0.5791870874714865</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5558713711561938</v>
+        <v>0.5558713711562068</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7113716932898642</v>
+        <v>0.7113716932898274</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -3644,130 +3644,130 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6900798574491452</v>
+        <v>0.6900798574491038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7291015897775237</v>
+        <v>0.7291015897776912</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4977578725148378</v>
+        <v>0.4977578725148379</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6874660618198809</v>
+        <v>0.6874660618200333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5749559414030042</v>
+        <v>0.5749559414030052</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5782626580895489</v>
+        <v>0.5782626580895494</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5679041240716491</v>
+        <v>0.5679041240716494</v>
       </c>
       <c r="J3" t="n">
-        <v>0.584914290646408</v>
+        <v>0.5849142906464001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.681062720606625</v>
+        <v>0.6810627206066147</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5781970046735302</v>
+        <v>0.5781970046735296</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6447729828905066</v>
+        <v>0.644772982890551</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5948772541194579</v>
+        <v>0.5948772541194122</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6726381040513697</v>
+        <v>0.6726381040515729</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5716265968968882</v>
+        <v>0.5716265968968873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6298027500321175</v>
+        <v>0.6298027500319733</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5744745894480207</v>
+        <v>0.5744745894480204</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5847101492449847</v>
+        <v>0.5847101492449838</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5725915108927816</v>
+        <v>0.5725915108927903</v>
       </c>
       <c r="U3" t="n">
-        <v>0.701397991114778</v>
+        <v>0.7013979911148082</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5713892543467476</v>
+        <v>0.571389254346748</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6558398867873459</v>
+        <v>0.6558398867871128</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5847689982969735</v>
+        <v>0.5847689982969733</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6003514393337077</v>
+        <v>0.6003514393336634</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5944852382486849</v>
+        <v>0.5944852382486012</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5977817286115549</v>
+        <v>0.5977817286116714</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7538363829722292</v>
+        <v>0.7538363829721911</v>
       </c>
       <c r="AC3" t="n">
         <v>0.57271897714259</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6037931366604489</v>
+        <v>0.603793136660421</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5650380821513967</v>
+        <v>0.5650380821513965</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.729814338876437</v>
+        <v>0.729814338876419</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5933249055249896</v>
+        <v>0.5933249055249638</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5773015208246036</v>
+        <v>0.5773015208247407</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.7425795464935918</v>
+        <v>0.7425795464938019</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7181574189896467</v>
+        <v>0.718157418989112</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7286611569214737</v>
+        <v>0.7286611569216641</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.603441678647634</v>
+        <v>0.6034416786475973</v>
       </c>
       <c r="AM3" t="n">
         <v>0.5643102906286731</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5863237495509729</v>
+        <v>0.5863237495507123</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5963072090780012</v>
+        <v>0.5963072090780043</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5813493692256022</v>
+        <v>0.581349369225602</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5844236437120008</v>
+        <v>0.5844236437119845</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7487202567134944</v>
+        <v>0.7487202567139581</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3775,130 +3775,130 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7632461470352619</v>
+        <v>0.7632461470351467</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7622656223716796</v>
+        <v>0.7622656223717023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.498141531212974</v>
+        <v>0.4981415312129741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7469702930517262</v>
+        <v>0.7469702930516897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7386900441139167</v>
+        <v>0.7386900441137623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5761832634027491</v>
+        <v>0.5761832634027364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5711688780595807</v>
+        <v>0.5711688780595838</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5743172050596476</v>
+        <v>0.5743172050596426</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5739963516889516</v>
+        <v>0.5739963516889585</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5725206732857793</v>
+        <v>0.5725206732858084</v>
       </c>
       <c r="M4" t="n">
-        <v>0.574750693027299</v>
+        <v>0.574750693027489</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5953935747929603</v>
+        <v>0.5953935747928921</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5815877956059486</v>
+        <v>0.5815877956059506</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6015575472206632</v>
+        <v>0.6015575472207865</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5794166093194553</v>
+        <v>0.5794166093196391</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5718611998911136</v>
+        <v>0.571861199890871</v>
       </c>
       <c r="S4" t="n">
-        <v>0.632416901923225</v>
+        <v>0.6324169019232593</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5714102108186528</v>
+        <v>0.5714102108186508</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6234925984474451</v>
+        <v>0.6234925984451453</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6021521255369277</v>
+        <v>0.6021521255379679</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5765308568878331</v>
+        <v>0.5765308568878169</v>
       </c>
       <c r="X4" t="n">
         <v>0.5795531472851196</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5906169908640935</v>
+        <v>0.5906169908643168</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.572161644441295</v>
+        <v>0.5721616444412926</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5885924137858687</v>
+        <v>0.588592413786537</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5984478081678297</v>
+        <v>0.598447808167782</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5629882461466564</v>
+        <v>0.5629882461466497</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5801319592896923</v>
+        <v>0.580131959289692</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6853420511947101</v>
+        <v>0.6853420511945968</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5821392566400035</v>
+        <v>0.5821392566399136</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5778580206503353</v>
+        <v>0.5778580206504594</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5932229730795036</v>
+        <v>0.5932229730793159</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5676308087017566</v>
+        <v>0.5676308087017246</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5928861780502326</v>
+        <v>0.5928861780502627</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5574149838869235</v>
+        <v>0.5574149838869219</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6305877080544028</v>
+        <v>0.6305877080545262</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7719102980883034</v>
+        <v>0.7719102980883521</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.582536072907097</v>
+        <v>0.5825360729071161</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.5885344224452744</v>
+        <v>0.5885344224452813</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6130685296256804</v>
+        <v>0.6130685296251331</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5516049214460765</v>
+        <v>0.5516049214460764</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7693054342231512</v>
+        <v>0.7693054342232257</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3906,130 +3906,130 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7322638289918616</v>
+        <v>0.732263828991876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6843143808612153</v>
+        <v>0.6843143808615965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4990102607255294</v>
+        <v>0.4990102607255385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5703062848953079</v>
+        <v>0.5703062848953078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5697397186590166</v>
+        <v>0.569739718659015</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5664823936557363</v>
+        <v>0.5664823936557365</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6434052270064474</v>
+        <v>0.6434052270064162</v>
       </c>
       <c r="J5" t="n">
         <v>0.5760131333496525</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7237374728877196</v>
+        <v>0.7237374728869728</v>
       </c>
       <c r="L5" t="n">
-        <v>0.666370120625918</v>
+        <v>0.6663701206253595</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5795833423768503</v>
+        <v>0.5795833423768001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6402512358751875</v>
+        <v>0.6402512358751401</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6992358421218018</v>
+        <v>0.6992358421201148</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7278754018744011</v>
+        <v>0.7278754018744542</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6940560720430174</v>
+        <v>0.6940560720463028</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6124376580543976</v>
+        <v>0.6124376580532943</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6778650695456624</v>
+        <v>0.6778650695554117</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6312619173411124</v>
+        <v>0.631261917342265</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6787598113196329</v>
+        <v>0.6787598113222205</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5719067640848717</v>
+        <v>0.5719067640848716</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7240822554758134</v>
+        <v>0.7240822554749172</v>
       </c>
       <c r="X5" t="n">
         <v>0.5785595220396602</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6027807518518918</v>
+        <v>0.6027807518518401</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5898193038628341</v>
+        <v>0.5898193038642409</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5744070115482504</v>
+        <v>0.5744070115482285</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5729575500980495</v>
+        <v>0.5729575500980781</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5664950182810401</v>
+        <v>0.5664950182810303</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.578837905042598</v>
+        <v>0.5788379050425964</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5614758310629742</v>
+        <v>0.5614758310629679</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6843094030567867</v>
+        <v>0.6843094030554815</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6749272523036253</v>
+        <v>0.6749272523028477</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7182133736479787</v>
+        <v>0.7182133736485745</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5640576838710033</v>
+        <v>0.564057683871</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5786619544106298</v>
+        <v>0.5786619544106196</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5600923225564789</v>
+        <v>0.5600923225564761</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.5753490872549977</v>
+        <v>0.5753490872549784</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6787626840445322</v>
+        <v>0.6787626840409754</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.57754595261951</v>
+        <v>0.5775459526195135</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.60997874061831</v>
+        <v>0.6099787406187219</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7390287503641284</v>
+        <v>0.7390287503636535</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5515774091414516</v>
+        <v>0.5515774091414513</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6999851949986245</v>
+        <v>0.6999851949993816</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -4037,130 +4037,130 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6429603970685457</v>
+        <v>0.6429603970681661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6227011395895284</v>
+        <v>0.6227011395896233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4970505440080511</v>
+        <v>0.497050544008051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6118051851305637</v>
+        <v>0.6118051851305547</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6715546417412341</v>
+        <v>0.6715546417412446</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5758394264692319</v>
+        <v>0.5758394264692219</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7172650520265477</v>
+        <v>0.7172650520269163</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5856574714975153</v>
+        <v>0.5856574714977999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714743108638288</v>
+        <v>0.5714743108637934</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5750978566758995</v>
+        <v>0.5750978566758989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6463145839198621</v>
+        <v>0.6463145839217657</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6874240921738485</v>
+        <v>0.6874240921662127</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6831976519542016</v>
+        <v>0.6831976519538145</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5807735223169481</v>
+        <v>0.5807735223196718</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6685312281863097</v>
+        <v>0.6685312281885656</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5735127096691952</v>
+        <v>0.573512709669195</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5793586775797339</v>
+        <v>0.5793586775794972</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5747125025362196</v>
+        <v>0.574712502536103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6912871741199932</v>
+        <v>0.6912871741179673</v>
       </c>
       <c r="V6" t="n">
         <v>0.57631826452546</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5823547537447735</v>
+        <v>0.582354753744773</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5810348101100752</v>
+        <v>0.581034810110074</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5630524899728673</v>
+        <v>0.5630524899728683</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5851790838256906</v>
+        <v>0.5851790838256939</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5656485525753266</v>
+        <v>0.5656485525753344</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6898329334868499</v>
+        <v>0.6898329334868183</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5619159407650248</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5834574857722346</v>
+        <v>0.5834574857722301</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6542210346237008</v>
+        <v>0.6542210346237146</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5699175057637665</v>
+        <v>0.5699175057637694</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6315060140791352</v>
+        <v>0.6315060140787299</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5941279547620325</v>
+        <v>0.5941279547605718</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5990485356920984</v>
+        <v>0.5990485356988818</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.5842968395597316</v>
+        <v>0.5842968395597311</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7770147262775303</v>
+        <v>0.7770147262777606</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5696642201306269</v>
+        <v>0.5696642201320694</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7016815961074901</v>
+        <v>0.7016815961076009</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7264404724805562</v>
+        <v>0.7264404724806421</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6363829704942815</v>
+        <v>0.63638297049436</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6394958477540181</v>
+        <v>0.6394958477531094</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5516050976487156</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5794838867687204</v>
+        <v>0.5794838867629648</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -4168,130 +4168,130 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7398677887416598</v>
+        <v>0.7398677887416365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7551095294812313</v>
+        <v>0.7551095294808339</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4952342166070691</v>
+        <v>0.495234216607069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5754922089179675</v>
+        <v>0.5754922089179919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5793995839002563</v>
+        <v>0.5793995839002677</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5683126314694544</v>
+        <v>0.5683126314694545</v>
       </c>
       <c r="I7" t="n">
-        <v>0.620195272585088</v>
+        <v>0.62019527258559</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6227623788256628</v>
+        <v>0.6227623788255828</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5796998894478073</v>
+        <v>0.5796998894478071</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5895434405446153</v>
+        <v>0.5895434405446204</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6653497183399609</v>
+        <v>0.6653497183401857</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5808704336247158</v>
+        <v>0.5808704336247128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5763616571562141</v>
+        <v>0.5763616571562314</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5786188424308547</v>
+        <v>0.5786188424308545</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6050782547307021</v>
+        <v>0.6050782547306383</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6922799263034668</v>
+        <v>0.6922799263034272</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5805203610940711</v>
+        <v>0.5805203610940692</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5960535307435609</v>
+        <v>0.5960535307435411</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5761205670058599</v>
+        <v>0.5761205670058601</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5850800333925239</v>
+        <v>0.5850800333925212</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6772982485495788</v>
+        <v>0.6772982485496408</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5843434503306937</v>
+        <v>0.5843434503306933</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5727810186558658</v>
+        <v>0.5727810186558635</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5797634540379321</v>
+        <v>0.5797634540379504</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7609608134259075</v>
+        <v>0.7609608134258627</v>
       </c>
       <c r="AB7" t="n">
         <v>0.5722727516474015</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6070146104343755</v>
+        <v>0.6070146104343709</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5775035917857404</v>
+        <v>0.5775035917857413</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5677900031789253</v>
+        <v>0.5677900031789251</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7436702385541479</v>
+        <v>0.7436702385534707</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5661826371106045</v>
+        <v>0.5661826371105989</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.5804216828190898</v>
+        <v>0.5804216828190893</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.731769356725692</v>
+        <v>0.7317693567256477</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.5759546111581582</v>
+        <v>0.575954611158161</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5632799757067265</v>
+        <v>0.5632799757067267</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5860930961621135</v>
+        <v>0.5860930961621131</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.762268606753616</v>
+        <v>0.7622686067536336</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5754572054957636</v>
+        <v>0.5754572054957627</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6776956432095661</v>
+        <v>0.6776956432094535</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7138490806202781</v>
+        <v>0.7138490806202817</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6714141162986574</v>
+        <v>0.6714141162985312</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7281528676223278</v>
+        <v>0.7281528676221209</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4299,130 +4299,130 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6787914248233382</v>
+        <v>0.6787914248330623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6414754019212097</v>
+        <v>0.6414754019107554</v>
       </c>
       <c r="E8" t="n">
-        <v>0.499390425806646</v>
+        <v>0.499390425806634</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5679987359791144</v>
+        <v>0.5679987359791242</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6145826801413926</v>
+        <v>0.6145826801460523</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5652136590587419</v>
+        <v>0.5652136590587421</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6210212480274846</v>
+        <v>0.62102124802725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.581200741786615</v>
+        <v>0.5812007417866197</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6336330132492097</v>
+        <v>0.6336330132484385</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5688419033783506</v>
+        <v>0.5688419033783537</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6647592530414955</v>
+        <v>0.6647592530420027</v>
       </c>
       <c r="N8" t="n">
-        <v>0.748524043572012</v>
+        <v>0.7485240435711001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5846738212032381</v>
+        <v>0.5846738212032202</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5816942279497943</v>
+        <v>0.5816942279497955</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6967018588629935</v>
+        <v>0.6967018588632122</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6721216690280758</v>
+        <v>0.6721216690218947</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6620173370619055</v>
+        <v>0.6620173370618334</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5945951169608339</v>
+        <v>0.5945951169698828</v>
       </c>
       <c r="U8" t="n">
-        <v>0.602535140203274</v>
+        <v>0.6025351402032489</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5672912330382763</v>
+        <v>0.5672912330382615</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5792675553864699</v>
+        <v>0.5792675553864701</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5731352890595024</v>
+        <v>0.5731352890594996</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5637626559469183</v>
+        <v>0.5637626559469182</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6054103439267796</v>
+        <v>0.6054103439264261</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5665345563030746</v>
+        <v>0.5665345563030744</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.663776582126405</v>
+        <v>0.6637765821231865</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5709132836291132</v>
+        <v>0.5709132836291134</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6103649238228812</v>
+        <v>0.6103649238228138</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6652050845365601</v>
+        <v>0.6652050845365592</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.573625431886165</v>
+        <v>0.5736254318861321</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5626922454162443</v>
+        <v>0.5626922454162451</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5580068107526371</v>
+        <v>0.5580068107525831</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5643656549875471</v>
+        <v>0.5643656549876238</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7076717943445675</v>
+        <v>0.7076717943444283</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6679534524304076</v>
+        <v>0.6679534524303266</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5564927915727802</v>
+        <v>0.5564927915727554</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6559231412652796</v>
+        <v>0.6559231412651699</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5739624771825433</v>
+        <v>0.5739624771825597</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5659956240430188</v>
+        <v>0.5659956240431595</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5919274109260249</v>
+        <v>0.5919274109223366</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5516051300226821</v>
+        <v>0.5516051300226819</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.6024559871587951</v>
+        <v>0.6024559871557169</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4430,130 +4430,130 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6683524025474418</v>
+        <v>0.6683524025471366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7377335990621008</v>
+        <v>0.737733599062159</v>
       </c>
       <c r="E9" t="n">
         <v>0.4980366613406317</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6502087006495084</v>
+        <v>0.650208700649559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.604981318982037</v>
+        <v>0.6049813189820125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.567804110954141</v>
+        <v>0.5678041109542082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6829189306662833</v>
+        <v>0.6829189306681426</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6590647920679017</v>
+        <v>0.6590647920681401</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6519540868761284</v>
+        <v>0.6519540868848798</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7166557642767402</v>
+        <v>0.7166557642767026</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7223507292851464</v>
+        <v>0.7223507292851434</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6018040173959794</v>
+        <v>0.6018040173871383</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6462438002039832</v>
+        <v>0.6462438002038789</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6783513688950026</v>
+        <v>0.6783513688963101</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6127883576355432</v>
+        <v>0.6127883576373355</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7092706594278613</v>
+        <v>0.7092706594255404</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6541683811679788</v>
+        <v>0.6541683811568805</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5784249958703925</v>
+        <v>0.5784249958671344</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6488301281039364</v>
+        <v>0.6488301281043516</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5708308520346371</v>
+        <v>0.5708308520346376</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5752292928591672</v>
+        <v>0.5752292928591161</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7001835963262882</v>
+        <v>0.700183596326257</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7050110622943075</v>
+        <v>0.7050110622942851</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5731666459533015</v>
+        <v>0.5731666459533027</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5803574215619367</v>
+        <v>0.5803574215614448</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6015757445153591</v>
+        <v>0.6015757445194294</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.590539330019728</v>
+        <v>0.5905393300181742</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6519277734465607</v>
+        <v>0.6519277734410046</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6205070463177325</v>
+        <v>0.6205070463175959</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5796861037832086</v>
+        <v>0.5796861037832133</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6541821235993188</v>
+        <v>0.6541821235992809</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5727199133374178</v>
+        <v>0.5727199133374254</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.55748087793589</v>
+        <v>0.5574808779358862</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6696210032931251</v>
+        <v>0.6696210032934888</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5588515968582327</v>
+        <v>0.5588515968582336</v>
       </c>
       <c r="AL9" t="n">
         <v>0.5648886093520158</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5979959274782874</v>
+        <v>0.5979959274782736</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7375555105371334</v>
+        <v>0.7375555105370578</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5581610252766811</v>
+        <v>0.5581610252766851</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6540425347967272</v>
+        <v>0.6540425347966511</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6111982143456943</v>
+        <v>0.6111982143456324</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7445260382169957</v>
+        <v>0.7445260382170704</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4561,130 +4561,130 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7434254489727923</v>
+        <v>0.7434254489722372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7229150270116662</v>
+        <v>0.7229150270114491</v>
       </c>
       <c r="E10" t="n">
         <v>0.4978999725572058</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5679553173586278</v>
+        <v>0.5679553173586301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5948897043906304</v>
+        <v>0.594889704389296</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7510948446201178</v>
+        <v>0.7510948446201533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7405630037084149</v>
+        <v>0.7405630037084306</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6680731165378727</v>
+        <v>0.6680731165377949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6030130821296737</v>
+        <v>0.6030130821296716</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5705092488012785</v>
+        <v>0.5705092488013327</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6676745798280646</v>
+        <v>0.6676745798263393</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7401965675148878</v>
+        <v>0.7401965675149571</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6249823365601429</v>
+        <v>0.6249823365601733</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6832413198800477</v>
+        <v>0.6832413198800639</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5722986258252819</v>
+        <v>0.5722986258252818</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5674340813426806</v>
+        <v>0.5674340813426624</v>
       </c>
       <c r="S10" t="n">
-        <v>0.62215952154208</v>
+        <v>0.6221595215451732</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6388079085718141</v>
+        <v>0.6388079085740869</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5975830818069374</v>
+        <v>0.5975830818070718</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5688846448001122</v>
+        <v>0.5688846448001061</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6977139218302904</v>
+        <v>0.6977139218348003</v>
       </c>
       <c r="X10" t="n">
         <v>0.5695771426469405</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5949740245873871</v>
+        <v>0.5949740245873739</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5804688860697634</v>
+        <v>0.5804688860697642</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6565791299045526</v>
+        <v>0.6565791299045145</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5750315508515391</v>
+        <v>0.5750315508515772</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7588734603970884</v>
+        <v>0.7588734603968149</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6356860494896206</v>
+        <v>0.6356860494896506</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5609032018261739</v>
+        <v>0.5609032018261736</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5803803272873186</v>
+        <v>0.5803803272872967</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5697323434738005</v>
+        <v>0.5697323434737803</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6014424761818</v>
+        <v>0.6014424761818168</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5783224241900572</v>
+        <v>0.5783224241900615</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.5783491979076675</v>
+        <v>0.5783491979076669</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6111319777347067</v>
+        <v>0.6111319777345997</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5860594799742803</v>
+        <v>0.5860594799742849</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5689648323847298</v>
+        <v>0.5689648323847258</v>
       </c>
       <c r="AN10" t="n">
         <v>0.5765312006990135</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7062806039097058</v>
+        <v>0.7062806039096947</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6924608157789541</v>
+        <v>0.6924608157789001</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5516027976814085</v>
+        <v>0.5516027976814093</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7661280192987324</v>
+        <v>0.7661280192984025</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4692,130 +4692,130 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6625171488390987</v>
+        <v>0.6625171488368085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7346380226006769</v>
+        <v>0.7346380225992083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4975026041834177</v>
+        <v>0.4975026041834175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5685482391346266</v>
+        <v>0.5685482391346256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5859213152047005</v>
+        <v>0.5859213152052212</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5730150375527129</v>
+        <v>0.5730150375527515</v>
       </c>
       <c r="I11" t="n">
-        <v>0.572153915180687</v>
+        <v>0.5721539151807039</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5924031991364755</v>
+        <v>0.59240319913263</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6798212426286048</v>
+        <v>0.6798212426255272</v>
       </c>
       <c r="L11" t="n">
-        <v>0.570500836875302</v>
+        <v>0.5705008368756437</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7245106782968183</v>
+        <v>0.7245106782968643</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6547726650651781</v>
+        <v>0.654772665064834</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7295093645876161</v>
+        <v>0.729509364586113</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5674951078542243</v>
+        <v>0.567495107854041</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7163968132229481</v>
+        <v>0.7163968132226842</v>
       </c>
       <c r="R11" t="n">
-        <v>0.62838501112053</v>
+        <v>0.6283850111211855</v>
       </c>
       <c r="S11" t="n">
-        <v>0.694464883441242</v>
+        <v>0.6944648834367162</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6488220460108474</v>
+        <v>0.6488220460096484</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6901216758354641</v>
+        <v>0.6901216758371919</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5649703180221944</v>
+        <v>0.5649703180221943</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7260750999277873</v>
+        <v>0.7260750999276842</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5725637237177585</v>
+        <v>0.5725637237178001</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5694484515855345</v>
+        <v>0.5694484515855309</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5769673386085218</v>
+        <v>0.5769673386085307</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5583986520544779</v>
+        <v>0.5583986520546368</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7741867864079421</v>
+        <v>0.7741867864079127</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.561046214699685</v>
+        <v>0.5610462146996871</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6092079144111122</v>
+        <v>0.6092079144109789</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.5569487951446479</v>
+        <v>0.5569487951446437</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.575651658480929</v>
+        <v>0.5756516584809233</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7404974247213325</v>
+        <v>0.7404974247213923</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5778354988237395</v>
+        <v>0.5778354988237372</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5700464723763619</v>
+        <v>0.5700464723763681</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5752662542981056</v>
+        <v>0.5752662542981083</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6203814934222358</v>
+        <v>0.6203814934226064</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.573621554262421</v>
+        <v>0.57362155426242</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7414141303377924</v>
+        <v>0.7414141303378773</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.5703877890659003</v>
+        <v>0.570387789065896</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5619136368890532</v>
+        <v>0.5619136368890226</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5640903844854671</v>
+        <v>0.5640903844854697</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5516051075184607</v>
+        <v>0.5516051075184609</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7131116076481894</v>
+        <v>0.7131116076466298</v>
       </c>
     </row>
   </sheetData>
